--- a/data/Subset1_WithDialogActs/Video Mosiac 11th grade Pascal 1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosiac 11th grade Pascal 1.xlsx_with_dialog_acts.xlsx
@@ -1527,12 +1527,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2069,12 +2069,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2317,12 +2317,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3385,12 +3385,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4361,12 +4361,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4441,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6791,12 +6791,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6955,12 +6955,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7035,12 +7035,12 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7283,12 +7283,12 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7409,12 +7409,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7577,12 +7577,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7703,12 +7703,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7829,12 +7829,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7913,12 +7913,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8409,12 +8409,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8527,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9607,12 +9607,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9813,12 +9813,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10389,12 +10389,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10945,12 +10945,12 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10987,12 +10987,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11895,12 +11895,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12319,12 +12319,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12483,12 +12483,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12567,12 +12567,12 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12681,12 +12681,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12799,12 +12799,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13123,12 +13123,12 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13165,12 +13165,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13291,12 +13291,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13367,12 +13367,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13409,12 +13409,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13737,12 +13737,12 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14073,12 +14073,12 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14271,12 +14271,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14515,12 +14515,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14595,12 +14595,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14721,12 +14721,12 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14999,12 +14999,12 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15041,12 +15041,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15331,12 +15331,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15705,12 +15705,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16321,12 +16321,12 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16721,12 +16721,12 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17373,12 +17373,12 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17453,12 +17453,12 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17929,12 +17929,12 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18055,12 +18055,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18097,12 +18097,12 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18139,12 +18139,12 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18291,12 +18291,12 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18611,12 +18611,12 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18809,12 +18809,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19217,12 +19217,12 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19259,12 +19259,12 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19297,12 +19297,12 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19381,12 +19381,12 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19781,12 +19781,12 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19975,12 +19975,12 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20253,12 +20253,12 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20455,12 +20455,12 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20539,12 +20539,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21279,12 +21279,12 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21359,12 +21359,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21439,12 +21439,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21721,12 +21721,12 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21763,12 +21763,12 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21805,12 +21805,12 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22469,12 +22469,12 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22595,12 +22595,12 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22999,12 +22999,12 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23335,12 +23335,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23655,12 +23655,12 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23735,12 +23735,12 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23857,12 +23857,12 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23975,12 +23975,12 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24059,12 +24059,12 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24551,12 +24551,12 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24711,12 +24711,12 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25069,12 +25069,12 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25195,12 +25195,12 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25279,12 +25279,12 @@
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25611,12 +25611,12 @@
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25653,12 +25653,12 @@
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25689,12 +25689,12 @@
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25731,12 +25731,12 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25887,12 +25887,12 @@
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25967,12 +25967,12 @@
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26047,12 +26047,12 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26131,12 +26131,12 @@
       </c>
       <c r="I629" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26445,12 +26445,12 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26529,12 +26529,12 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26731,12 +26731,12 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26853,12 +26853,12 @@
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27273,12 +27273,12 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27391,12 +27391,12 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27951,12 +27951,12 @@
       </c>
       <c r="I674" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27989,12 +27989,12 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28027,12 +28027,12 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28065,12 +28065,12 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28187,12 +28187,12 @@
       </c>
       <c r="I680" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28427,12 +28427,12 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28831,12 +28831,12 @@
       <c r="H696" t="inlineStr"/>
       <c r="I696" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29483,12 +29483,12 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30101,12 +30101,12 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30421,12 +30421,12 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30505,12 +30505,12 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30831,12 +30831,12 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30951,12 +30951,12 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30993,12 +30993,12 @@
       </c>
       <c r="I749" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31521,12 +31521,12 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -32379,12 +32379,12 @@
       <c r="H783" t="inlineStr"/>
       <c r="I783" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32585,12 +32585,12 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32867,12 +32867,12 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33073,12 +33073,12 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33271,12 +33271,12 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -33397,12 +33397,12 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33565,12 +33565,12 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33607,12 +33607,12 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33813,12 +33813,12 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34973,12 +34973,12 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35015,12 +35015,12 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35057,12 +35057,12 @@
       <c r="H848" t="inlineStr"/>
       <c r="I848" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -35221,12 +35221,12 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35461,12 +35461,12 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35587,12 +35587,12 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35831,12 +35831,12 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36399,12 +36399,12 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36643,12 +36643,12 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -36803,12 +36803,12 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36845,12 +36845,12 @@
       <c r="H892" t="inlineStr"/>
       <c r="I892" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36925,12 +36925,12 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37195,12 +37195,12 @@
       <c r="H901" t="inlineStr"/>
       <c r="I901" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37595,12 +37595,12 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38303,12 +38303,12 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38573,12 +38573,12 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -38615,12 +38615,12 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38775,12 +38775,12 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39225,12 +39225,12 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39435,12 +39435,12 @@
       <c r="H957" t="inlineStr"/>
       <c r="I957" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39847,12 +39847,12 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J967" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -40811,12 +40811,12 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -42049,12 +42049,12 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -42091,12 +42091,12 @@
       <c r="H1023" t="inlineStr"/>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -42457,12 +42457,12 @@
       <c r="H1032" t="inlineStr"/>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -42579,12 +42579,12 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1035" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -42663,12 +42663,12 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -42865,12 +42865,12 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1042" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -42907,12 +42907,12 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -44035,12 +44035,12 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -44649,12 +44649,12 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1086" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44691,12 +44691,12 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1087" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -44733,12 +44733,12 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -45019,12 +45019,12 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1095" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -45663,12 +45663,12 @@
       <c r="H1111" t="inlineStr"/>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1111" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -46243,12 +46243,12 @@
       <c r="H1125" t="inlineStr"/>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1125" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -46369,12 +46369,12 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -46689,12 +46689,12 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47147,12 +47147,12 @@
       <c r="H1147" t="inlineStr"/>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1147" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -47319,12 +47319,12 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -47441,12 +47441,12 @@
       </c>
       <c r="I1154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -47521,12 +47521,12 @@
       <c r="H1156" t="inlineStr"/>
       <c r="I1156" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1156" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -47689,12 +47689,12 @@
       </c>
       <c r="I1160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -47937,12 +47937,12 @@
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1166" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -48395,12 +48395,12 @@
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -48639,12 +48639,12 @@
       </c>
       <c r="I1183" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1183" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -49135,12 +49135,12 @@
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49597,12 +49597,12 @@
       </c>
       <c r="I1206" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1206" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -49807,12 +49807,12 @@
       </c>
       <c r="I1211" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1211" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -50219,12 +50219,12 @@
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -51613,12 +51613,12 @@
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1255" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -51811,12 +51811,12 @@
       <c r="H1260" t="inlineStr"/>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -52349,12 +52349,12 @@
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1273" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52753,12 +52753,12 @@
       </c>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -52913,12 +52913,12 @@
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1287" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -52955,12 +52955,12 @@
       </c>
       <c r="I1288" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1288" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -54217,12 +54217,12 @@
       </c>
       <c r="I1319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -54259,12 +54259,12 @@
       <c r="H1320" t="inlineStr"/>
       <c r="I1320" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1320" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -54335,12 +54335,12 @@
       <c r="H1322" t="inlineStr"/>
       <c r="I1322" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1322" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -54705,12 +54705,12 @@
       </c>
       <c r="I1331" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1331" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -54869,12 +54869,12 @@
       <c r="H1335" t="inlineStr"/>
       <c r="I1335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -55529,12 +55529,12 @@
       </c>
       <c r="I1351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -55781,12 +55781,12 @@
       </c>
       <c r="I1357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -55819,12 +55819,12 @@
       </c>
       <c r="I1358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -55941,12 +55941,12 @@
       </c>
       <c r="I1361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -56063,12 +56063,12 @@
       <c r="H1364" t="inlineStr"/>
       <c r="I1364" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1364" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -56147,12 +56147,12 @@
       </c>
       <c r="I1366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -56185,12 +56185,12 @@
       </c>
       <c r="I1367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -56307,12 +56307,12 @@
       <c r="H1370" t="inlineStr"/>
       <c r="I1370" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1370" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -56391,12 +56391,12 @@
       </c>
       <c r="I1372" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1372" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -57009,12 +57009,12 @@
       </c>
       <c r="I1387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -57971,12 +57971,12 @@
       </c>
       <c r="I1410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -58055,12 +58055,12 @@
       </c>
       <c r="I1412" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1412" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -58337,12 +58337,12 @@
       </c>
       <c r="I1419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -58417,12 +58417,12 @@
       </c>
       <c r="I1421" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1421" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -58459,12 +58459,12 @@
       <c r="H1422" t="inlineStr"/>
       <c r="I1422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -58535,12 +58535,12 @@
       <c r="H1424" t="inlineStr"/>
       <c r="I1424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -58741,12 +58741,12 @@
       <c r="H1429" t="inlineStr"/>
       <c r="I1429" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1429" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -58779,12 +58779,12 @@
       <c r="H1430" t="inlineStr"/>
       <c r="I1430" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1430" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -59237,12 +59237,12 @@
       </c>
       <c r="I1441" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1441" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -59279,12 +59279,12 @@
       <c r="H1442" t="inlineStr"/>
       <c r="I1442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -59401,12 +59401,12 @@
       </c>
       <c r="I1445" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1445" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -59439,12 +59439,12 @@
       </c>
       <c r="I1446" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1446" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -59771,12 +59771,12 @@
       </c>
       <c r="I1454" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1454" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -59961,12 +59961,12 @@
       </c>
       <c r="I1459" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1459" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -60155,12 +60155,12 @@
       </c>
       <c r="I1464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -60239,12 +60239,12 @@
       </c>
       <c r="I1466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -61085,12 +61085,12 @@
       </c>
       <c r="I1487" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1487" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -61539,12 +61539,12 @@
       </c>
       <c r="I1498" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1498" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -61783,12 +61783,12 @@
       </c>
       <c r="I1504" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1504" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -61941,12 +61941,12 @@
       </c>
       <c r="I1508" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1508" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -62619,12 +62619,12 @@
       </c>
       <c r="I1525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -62825,12 +62825,12 @@
       </c>
       <c r="I1530" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1530" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -62867,12 +62867,12 @@
       </c>
       <c r="I1531" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1531" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -62909,12 +62909,12 @@
       </c>
       <c r="I1532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -62951,12 +62951,12 @@
       </c>
       <c r="I1533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -63119,12 +63119,12 @@
       </c>
       <c r="I1537" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1537" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -63279,12 +63279,12 @@
       </c>
       <c r="I1541" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1541" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -63859,12 +63859,12 @@
       </c>
       <c r="I1555" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1555" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -64275,12 +64275,12 @@
       </c>
       <c r="I1565" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1565" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -65637,12 +65637,12 @@
       </c>
       <c r="I1598" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1598" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -66435,12 +66435,12 @@
       </c>
       <c r="I1617" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1617" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -66843,12 +66843,12 @@
       </c>
       <c r="I1627" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1627" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -67385,12 +67385,12 @@
       </c>
       <c r="I1640" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1640" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -67869,12 +67869,12 @@
       </c>
       <c r="I1652" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1652" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -67909,12 +67909,12 @@
       </c>
       <c r="I1653" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1653" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -68069,12 +68069,12 @@
       <c r="H1657" t="inlineStr"/>
       <c r="I1657" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1657" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -68317,12 +68317,12 @@
       </c>
       <c r="I1663" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1663" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -68359,12 +68359,12 @@
       <c r="H1664" t="inlineStr"/>
       <c r="I1664" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1664" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -68763,12 +68763,12 @@
       </c>
       <c r="I1674" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1674" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -68923,12 +68923,12 @@
       </c>
       <c r="I1678" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1678" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69343,12 +69343,12 @@
       </c>
       <c r="I1688" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1688" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -69385,12 +69385,12 @@
       </c>
       <c r="I1689" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1689" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -69553,12 +69553,12 @@
       </c>
       <c r="I1693" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1693" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -69721,12 +69721,12 @@
       </c>
       <c r="I1697" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1697" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -69961,12 +69961,12 @@
       </c>
       <c r="I1703" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1703" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -69999,12 +69999,12 @@
       </c>
       <c r="I1704" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1704" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -70163,12 +70163,12 @@
       </c>
       <c r="I1708" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1708" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -70243,12 +70243,12 @@
       </c>
       <c r="I1710" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1710" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -70529,12 +70529,12 @@
       </c>
       <c r="I1717" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1717" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -70571,12 +70571,12 @@
       </c>
       <c r="I1718" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1718" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -70647,12 +70647,12 @@
       </c>
       <c r="I1720" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1720" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -70805,12 +70805,12 @@
       <c r="H1724" t="inlineStr"/>
       <c r="I1724" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1724" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -70969,12 +70969,12 @@
       </c>
       <c r="I1728" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1728" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -71343,12 +71343,12 @@
       </c>
       <c r="I1737" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1737" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -71631,12 +71631,12 @@
       </c>
       <c r="I1744" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1744" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -71791,12 +71791,12 @@
       </c>
       <c r="I1748" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1748" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -72085,12 +72085,12 @@
       </c>
       <c r="I1755" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1755" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -72455,12 +72455,12 @@
       </c>
       <c r="I1764" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1764" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -72497,12 +72497,12 @@
       </c>
       <c r="I1765" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1765" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -72623,12 +72623,12 @@
       </c>
       <c r="I1768" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1768" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -72665,12 +72665,12 @@
       </c>
       <c r="I1769" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1769" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -72707,12 +72707,12 @@
       <c r="H1770" t="inlineStr"/>
       <c r="I1770" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1770" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -72749,12 +72749,12 @@
       </c>
       <c r="I1771" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1771" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -72825,12 +72825,12 @@
       </c>
       <c r="I1773" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1773" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -72909,12 +72909,12 @@
       </c>
       <c r="I1775" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1775" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -73153,12 +73153,12 @@
       </c>
       <c r="I1781" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1781" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -73237,12 +73237,12 @@
       </c>
       <c r="I1783" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1783" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -73279,12 +73279,12 @@
       </c>
       <c r="I1784" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1784" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -73321,12 +73321,12 @@
       </c>
       <c r="I1785" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1785" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -73641,12 +73641,12 @@
       <c r="H1793" t="inlineStr"/>
       <c r="I1793" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1793" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -73973,12 +73973,12 @@
       </c>
       <c r="I1801" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J1801" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -74095,12 +74095,12 @@
       </c>
       <c r="I1804" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1804" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -74133,12 +74133,12 @@
       </c>
       <c r="I1805" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1805" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -74209,12 +74209,12 @@
       </c>
       <c r="I1807" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1807" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -74327,12 +74327,12 @@
       <c r="H1810" t="inlineStr"/>
       <c r="I1810" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1810" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -74525,12 +74525,12 @@
       <c r="H1815" t="inlineStr"/>
       <c r="I1815" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1815" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -74689,12 +74689,12 @@
       </c>
       <c r="I1819" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1819" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -75059,12 +75059,12 @@
       </c>
       <c r="I1828" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1828" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -75479,12 +75479,12 @@
       </c>
       <c r="I1838" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1838" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -75685,12 +75685,12 @@
       </c>
       <c r="I1843" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1843" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -76379,12 +76379,12 @@
       </c>
       <c r="I1860" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1860" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -76627,12 +76627,12 @@
       </c>
       <c r="I1866" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1866" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -77203,12 +77203,12 @@
       </c>
       <c r="I1880" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1880" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -77283,12 +77283,12 @@
       </c>
       <c r="I1882" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1882" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -78041,12 +78041,12 @@
       </c>
       <c r="I1901" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J1901" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -78311,12 +78311,12 @@
       <c r="H1908" t="inlineStr"/>
       <c r="I1908" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J1908" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -78689,12 +78689,12 @@
       </c>
       <c r="I1917" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J1917" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -78899,12 +78899,12 @@
       </c>
       <c r="I1922" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J1922" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -79151,12 +79151,12 @@
       </c>
       <c r="I1928" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J1928" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
